--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c207_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c207_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1199,10 +1211,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1246,28 +1258,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1292,28 +1304,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1401,10 +1413,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1448,28 +1460,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1494,28 +1506,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1719,10 +1731,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1766,28 +1778,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1812,28 +1824,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1979,10 +1991,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2026,28 +2038,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2072,28 +2084,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2239,10 +2251,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2286,28 +2298,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2332,28 +2344,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2528,10 +2540,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2575,28 +2587,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="2">
+      <c r="C85" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2621,28 +2633,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2846,10 +2858,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2893,28 +2905,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2939,28 +2951,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3164,10 +3176,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3211,28 +3223,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3257,28 +3269,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3395,10 +3407,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3442,28 +3454,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3488,28 +3500,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3626,10 +3638,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3673,28 +3685,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3719,28 +3731,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3857,10 +3869,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3904,28 +3916,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3950,28 +3962,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4146,10 +4158,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4193,28 +4205,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4239,28 +4251,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4464,10 +4476,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4511,28 +4523,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4557,28 +4569,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4695,10 +4707,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4742,28 +4754,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4788,28 +4800,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4955,10 +4967,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5002,28 +5014,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5048,28 +5060,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5244,10 +5256,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5291,28 +5303,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5337,28 +5349,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5562,10 +5574,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5609,28 +5621,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5655,28 +5667,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5851,10 +5863,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5898,28 +5910,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5944,28 +5956,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6198,10 +6210,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6245,28 +6257,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6291,28 +6303,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6371,10 +6383,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
